--- a/data/trans_orig/FINALB_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/FINALB_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABB4A80D-6AF9-479D-89A9-8AC55D4EF7AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EEE83307-57A4-4EED-A9A4-35A0F74FFA0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{218A8134-9F78-451C-A243-89B91D243615}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8E49A387-274E-4792-BFFE-F03EBC5655E6}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="270">
   <si>
     <t>Población según la coperación aportada al realizar la entrevista en 2023 (Tasa respuesta: 99,94%)</t>
   </si>
@@ -92,13 +92,13 @@
     <t>0,7%</t>
   </si>
   <si>
-    <t>2,68%</t>
+    <t>2,44%</t>
   </si>
   <si>
     <t>0,34%</t>
   </si>
   <si>
-    <t>1,19%</t>
+    <t>1,3%</t>
   </si>
   <si>
     <t>Buena</t>
@@ -110,25 +110,25 @@
     <t>0,33%</t>
   </si>
   <si>
-    <t>3,03%</t>
+    <t>3,07%</t>
   </si>
   <si>
     <t>2,17%</t>
   </si>
   <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
   </si>
   <si>
     <t>1,65%</t>
   </si>
   <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
   </si>
   <si>
     <t>Excelente</t>
@@ -137,28 +137,28 @@
     <t>98,18%</t>
   </si>
   <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
   </si>
   <si>
     <t>97,83%</t>
   </si>
   <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
   </si>
   <si>
     <t>98,0%</t>
   </si>
   <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
   </si>
   <si>
     <t>100%</t>
@@ -179,691 +179,670 @@
     <t>0,21%</t>
   </si>
   <si>
-    <t>1,04%</t>
-  </si>
-  <si>
     <t>0,42%</t>
   </si>
   <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>71,68%</t>
+  </si>
+  <si>
+    <t>66,09%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>69,58%</t>
+  </si>
+  <si>
+    <t>65,98%</t>
+  </si>
+  <si>
+    <t>72,88%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>67,69%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>60,96%</t>
+  </si>
+  <si>
+    <t>73,7%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>69,24%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
     <t>1,46%</t>
   </si>
   <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>71,68%</t>
-  </si>
-  <si>
-    <t>66,55%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>69,58%</t>
-  </si>
-  <si>
-    <t>65,95%</t>
-  </si>
-  <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>67,52%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
   </si>
   <si>
     <t>0,24%</t>
   </si>
   <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>67,95%</t>
-  </si>
-  <si>
-    <t>61,14%</t>
-  </si>
-  <si>
-    <t>73,16%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>72,4%</t>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
   </si>
   <si>
     <t>81,43%</t>
   </si>
   <si>
-    <t>73,19%</t>
-  </si>
-  <si>
-    <t>69,2%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
+    <t>84,54%</t>
   </si>
   <si>
     <t>83,27%</t>
   </si>
   <si>
-    <t>82,31%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1278,7 +1257,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF88DD4E-99F6-45A9-80A9-4915A54DCB47}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4718534E-ABDB-4094-8794-F8E9D10018D4}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1716,7 +1695,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -1725,13 +1704,13 @@
         <v>2320</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -1740,13 +1719,13 @@
         <v>3391</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1761,13 +1740,13 @@
         <v>145990</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="H11" s="7">
         <v>232</v>
@@ -1776,13 +1755,13 @@
         <v>166398</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="M11" s="7">
         <v>343</v>
@@ -1791,13 +1770,13 @@
         <v>312388</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1812,13 +1791,13 @@
         <v>372236</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H12" s="7">
         <v>483</v>
@@ -1827,13 +1806,13 @@
         <v>385848</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M12" s="7">
         <v>753</v>
@@ -1842,13 +1821,13 @@
         <v>758085</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1904,7 +1883,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1922,7 +1901,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -1931,13 +1910,13 @@
         <v>544</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -1946,13 +1925,13 @@
         <v>544</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1967,13 +1946,13 @@
         <v>4890</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="H15" s="7">
         <v>15</v>
@@ -1982,13 +1961,13 @@
         <v>11135</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="M15" s="7">
         <v>20</v>
@@ -1997,13 +1976,13 @@
         <v>16025</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2018,13 +1997,13 @@
         <v>17198</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="H16" s="7">
         <v>47</v>
@@ -2033,13 +2012,13 @@
         <v>31176</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="M16" s="7">
         <v>68</v>
@@ -2048,13 +2027,13 @@
         <v>48374</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2069,13 +2048,13 @@
         <v>300152</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H17" s="7">
         <v>473</v>
@@ -2084,13 +2063,13 @@
         <v>330430</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>807</v>
@@ -2099,13 +2078,13 @@
         <v>630582</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2161,7 +2140,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2179,7 +2158,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -2188,13 +2167,13 @@
         <v>350</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -2203,13 +2182,13 @@
         <v>350</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2224,13 +2203,13 @@
         <v>8170</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H20" s="7">
         <v>8</v>
@@ -2239,13 +2218,13 @@
         <v>3800</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M20" s="7">
         <v>19</v>
@@ -2254,13 +2233,13 @@
         <v>11971</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2275,13 +2254,13 @@
         <v>25556</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H21" s="7">
         <v>51</v>
@@ -2290,13 +2269,13 @@
         <v>32595</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M21" s="7">
         <v>78</v>
@@ -2305,13 +2284,13 @@
         <v>58151</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2326,13 +2305,13 @@
         <v>288514</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H22" s="7">
         <v>539</v>
@@ -2341,13 +2320,13 @@
         <v>391811</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="M22" s="7">
         <v>793</v>
@@ -2356,13 +2335,13 @@
         <v>680324</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2418,7 +2397,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2436,7 +2415,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2451,7 +2430,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -2466,7 +2445,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2481,13 +2460,13 @@
         <v>578</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H25" s="7">
         <v>9</v>
@@ -2496,13 +2475,13 @@
         <v>4221</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="M25" s="7">
         <v>10</v>
@@ -2514,10 +2493,10 @@
         <v>22</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2532,13 +2511,13 @@
         <v>133689</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H26" s="7">
         <v>386</v>
@@ -2547,13 +2526,13 @@
         <v>179749</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M26" s="7">
         <v>580</v>
@@ -2562,13 +2541,13 @@
         <v>313438</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2583,13 +2562,13 @@
         <v>62481</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H27" s="7">
         <v>96</v>
@@ -2598,13 +2577,13 @@
         <v>47526</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="M27" s="7">
         <v>180</v>
@@ -2613,13 +2592,13 @@
         <v>110007</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2675,7 +2654,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2693,7 +2672,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>77</v>
+        <v>161</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -2708,7 +2687,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -2723,7 +2702,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2738,13 +2717,13 @@
         <v>1796</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H30" s="7">
         <v>2</v>
@@ -2753,13 +2732,13 @@
         <v>680</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="M30" s="7">
         <v>5</v>
@@ -2768,13 +2747,13 @@
         <v>2476</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>170</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2789,13 +2768,13 @@
         <v>4525</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>171</v>
+        <v>79</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="H31" s="7">
         <v>20</v>
@@ -2804,13 +2783,13 @@
         <v>7936</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>175</v>
+        <v>137</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="M31" s="7">
         <v>27</v>
@@ -2819,13 +2798,13 @@
         <v>12462</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>179</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2840,13 +2819,13 @@
         <v>269707</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="H32" s="7">
         <v>438</v>
@@ -2855,13 +2834,13 @@
         <v>267006</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="M32" s="7">
         <v>798</v>
@@ -2870,13 +2849,13 @@
         <v>536713</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2932,7 +2911,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -2950,7 +2929,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -2965,7 +2944,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -2980,7 +2959,7 @@
         <v>12</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2995,13 +2974,13 @@
         <v>2607</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>193</v>
+        <v>26</v>
       </c>
       <c r="H35" s="7">
         <v>9</v>
@@ -3010,13 +2989,13 @@
         <v>5889</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>194</v>
+        <v>49</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="M35" s="7">
         <v>13</v>
@@ -3025,13 +3004,13 @@
         <v>8496</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>197</v>
+        <v>49</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3046,13 +3025,13 @@
         <v>100394</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="H36" s="7">
         <v>112</v>
@@ -3061,13 +3040,13 @@
         <v>80960</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="M36" s="7">
         <v>215</v>
@@ -3076,13 +3055,13 @@
         <v>181354</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3097,13 +3076,13 @@
         <v>524753</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="H37" s="7">
         <v>839</v>
@@ -3112,13 +3091,13 @@
         <v>717354</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="M37" s="7">
         <v>1331</v>
@@ -3127,13 +3106,13 @@
         <v>1242107</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3189,7 +3168,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3201,13 +3180,13 @@
         <v>3318</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="H39" s="7">
         <v>6</v>
@@ -3219,10 +3198,10 @@
         <v>43</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="M39" s="7">
         <v>8</v>
@@ -3231,13 +3210,13 @@
         <v>7655</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>29</v>
+        <v>212</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3252,13 +3231,13 @@
         <v>26885</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="H40" s="7">
         <v>46</v>
@@ -3267,13 +3246,13 @@
         <v>39126</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>226</v>
+        <v>24</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="M40" s="7">
         <v>72</v>
@@ -3282,13 +3261,13 @@
         <v>66010</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>229</v>
+        <v>30</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3303,13 +3282,13 @@
         <v>65678</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>81</v>
+        <v>221</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="H41" s="7">
         <v>96</v>
@@ -3318,13 +3297,13 @@
         <v>78892</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="M41" s="7">
         <v>161</v>
@@ -3333,13 +3312,13 @@
         <v>144571</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3354,13 +3333,13 @@
         <v>763547</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="H42" s="7">
         <v>914</v>
@@ -3369,13 +3348,13 @@
         <v>746080</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="M42" s="7">
         <v>1583</v>
@@ -3384,13 +3363,13 @@
         <v>1509626</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3458,13 +3437,13 @@
         <v>3318</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>23</v>
+        <v>239</v>
       </c>
       <c r="H44" s="7">
         <v>8</v>
@@ -3473,13 +3452,13 @@
         <v>5230</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>249</v>
+        <v>167</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="M44" s="7">
         <v>10</v>
@@ -3488,13 +3467,13 @@
         <v>8548</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>137</v>
+        <v>241</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3509,13 +3488,13 @@
         <v>47816</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>195</v>
+        <v>242</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>26</v>
+        <v>243</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H45" s="7">
         <v>91</v>
@@ -3524,13 +3503,13 @@
         <v>67171</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="M45" s="7">
         <v>144</v>
@@ -3539,13 +3518,13 @@
         <v>114986</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3560,13 +3539,13 @@
         <v>495946</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="H46" s="7">
         <v>954</v>
@@ -3575,13 +3554,13 @@
         <v>583582</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="M46" s="7">
         <v>1486</v>
@@ -3590,13 +3569,13 @@
         <v>1079528</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3611,13 +3590,13 @@
         <v>2836953</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="H47" s="7">
         <v>4310</v>
@@ -3626,13 +3605,13 @@
         <v>3151581</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="M47" s="7">
         <v>7098</v>
@@ -3641,13 +3620,13 @@
         <v>5988535</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3703,7 +3682,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/FINALB_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/FINALB_2023-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EEE83307-57A4-4EED-A9A4-35A0F74FFA0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{97C767FC-709B-402E-AA55-41AF7141B626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8E49A387-274E-4792-BFFE-F03EBC5655E6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1F3CC01E-F033-4A21-8875-7519ED3E4AD7}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1257,7 +1257,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4718534E-ABDB-4094-8794-F8E9D10018D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B9168B1-7CE6-4E1D-B9CB-BD3B18F697A6}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
